--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -79,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +122,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF003366"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -149,7 +143,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,7 +459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +541,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -574,7 +567,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -600,7 +593,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -627,7 +620,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -653,7 +646,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -678,8 +671,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>1</v>
+      <c r="A10">
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -706,7 +699,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -732,7 +725,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -761,7 +754,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -787,7 +780,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -813,7 +806,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -839,7 +832,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>

--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -83,14 +83,17 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -199,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,443 +524,446 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -932,6 +971,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
   <si>
     <t>A</t>
   </si>
@@ -85,14 +85,54 @@
     <t>13</t>
   </si>
   <si>
-    <t>int</t>
+    <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>0,1,3</t>
+  </si>
+  <si>
+    <t>0,1,4</t>
+  </si>
+  <si>
+    <t>0,1,5</t>
+  </si>
+  <si>
+    <t>0,1,6</t>
+  </si>
+  <si>
+    <t>0,1,7</t>
+  </si>
+  <si>
+    <t>0,1,8</t>
+  </si>
+  <si>
+    <t>0,1,9</t>
+  </si>
+  <si>
+    <t>0,1,10</t>
+  </si>
+  <si>
+    <t>0,1,11</t>
+  </si>
+  <si>
+    <t>0,1,12</t>
+  </si>
+  <si>
+    <t>0,1,13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -276,23 +316,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -328,23 +351,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,7 +530,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,11 +583,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -604,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -633,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -662,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -691,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -720,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -749,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -777,8 +783,8 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -807,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -836,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -865,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -894,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -923,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -952,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -970,6 +976,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>A</t>
   </si>
@@ -85,48 +85,64 @@
     <t>13</t>
   </si>
   <si>
-    <t>List&lt;int&gt;</t>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>0,1,3</t>
+  </si>
+  <si>
+    <t>0,1,4</t>
+  </si>
+  <si>
+    <t>0,1,5</t>
+  </si>
+  <si>
+    <t>0,1,6</t>
+  </si>
+  <si>
+    <t>0,1,7</t>
+  </si>
+  <si>
+    <t>0,1,8</t>
+  </si>
+  <si>
+    <t>0,1,9</t>
+  </si>
+  <si>
+    <t>0,1,10</t>
+  </si>
+  <si>
+    <t>0,1,11</t>
+  </si>
+  <si>
+    <t>0,1,12</t>
+  </si>
+  <si>
+    <t>0,1,13</t>
+  </si>
+  <si>
+    <t>"12341"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,1</t>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>0,1,3</t>
-  </si>
-  <si>
-    <t>0,1,4</t>
-  </si>
-  <si>
-    <t>0,1,5</t>
-  </si>
-  <si>
-    <t>0,1,6</t>
-  </si>
-  <si>
-    <t>0,1,7</t>
-  </si>
-  <si>
-    <t>0,1,8</t>
-  </si>
-  <si>
-    <t>0,1,9</t>
-  </si>
-  <si>
-    <t>0,1,10</t>
-  </si>
-  <si>
-    <t>0,1,11</t>
-  </si>
-  <si>
-    <t>0,1,12</t>
-  </si>
-  <si>
-    <t>0,1,13</t>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123",""ba"sd"", "dfs"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,12 +546,14 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -557,8 +575,8 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -581,13 +599,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>7</v>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -601,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -639,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -668,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -697,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -726,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -755,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -784,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -813,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -842,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -871,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -900,7 +918,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -929,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -958,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>

--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -56,69 +56,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>0,1,3</t>
-  </si>
-  <si>
-    <t>0,1,4</t>
-  </si>
-  <si>
-    <t>0,1,5</t>
-  </si>
-  <si>
-    <t>0,1,6</t>
-  </si>
-  <si>
-    <t>0,1,7</t>
-  </si>
-  <si>
-    <t>0,1,8</t>
-  </si>
-  <si>
-    <t>0,1,9</t>
-  </si>
-  <si>
-    <t>0,1,10</t>
-  </si>
-  <si>
-    <t>0,1,11</t>
-  </si>
-  <si>
-    <t>0,1,12</t>
-  </si>
-  <si>
-    <t>0,1,13</t>
   </si>
   <si>
     <t>"12341"</t>
@@ -142,6 +79,10 @@
   </si>
   <si>
     <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,2),(3,4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +487,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -599,13 +540,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -619,16 +560,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -644,352 +585,136 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>(1,2),(3,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,56 +505,32 @@
     <col min="5" max="5" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -555,45 +539,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -614,7 +616,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -625,7 +627,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -641,25 +643,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -716,6 +718,17 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>//注释</t>
+  </si>
   <si>
     <t>A</t>
   </si>
@@ -31,74 +34,63 @@
     <t>E</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>list&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>dictionary&lt;int,int&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>"12341"</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>(1,2),(3,4)</t>
+  </si>
+  <si>
+    <t>"123",""ba"sd"", "dfs"</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>list&lt;int&gt;</t>
-  </si>
-  <si>
-    <t>dictionary&lt;int,int&gt;</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>"12341"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"123",""ba"sd"", "dfs"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,2),(3,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,15 +162,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,238 +494,455 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="48.75" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1" style="2"/>
+    <col min="4" max="4" width="24" customWidth="1" style="2"/>
+    <col min="5" max="5" width="48.75" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>//注释</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -593,31 +596,31 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">

--- a/Assets/Test.xlsx
+++ b/Assets/Test.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>//注释</t>
   </si>
@@ -70,12 +70,6 @@
     <t>"12341"</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>(1,2),(3,4)</t>
-  </si>
-  <si>
     <t>"123",""ba"sd"", "dfs"</t>
   </si>
   <si>
@@ -85,15 +79,19 @@
     <t>7</t>
   </si>
   <si>
-    <t>2</t>
+    <t>{1,2},{3,4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,2,3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,17 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,229 +486,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="2"/>
-    <col min="4" max="4" width="24" customWidth="1" style="2"/>
-    <col min="5" max="5" width="48.75" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -723,7 +720,7 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -739,213 +736,183 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>